--- a/Assets/sh_data.xlsx
+++ b/Assets/sh_data.xlsx
@@ -533,12 +533,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>688170</t>
+          <t>688238</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>德龙激光</t>
+          <t>和元生物</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,72 +548,72 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>48.64</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20.01%</t>
+          <t>19.96%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13.07万</t>
+          <t>50.86万</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.10亿</t>
+          <t>6.01亿</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>13.87%</t>
+          <t>12.66%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>48.64</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>43.02</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>46.68</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>40.53</t>
+          <t>10.27</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>5.61</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>16.42%</t>
+          <t>11.77%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-522.78</t>
+          <t>-84.14</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>688238</t>
+          <t>688170</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>和元生物</t>
+          <t>德龙激光</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -640,72 +640,72 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>47.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12.66%</t>
+          <t>16.68%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>31.24万</t>
+          <t>15.07万</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.61亿</t>
+          <t>7.07亿</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>9.44%</t>
+          <t>13.87%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>48.64</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>43.02</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>46.68</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>10.27</t>
+          <t>40.53</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>18.92%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-79.02</t>
+          <t>-508.27</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.88</t>
         </is>
       </c>
     </row>
@@ -717,12 +717,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>600831</t>
+          <t>600281</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广电网络</t>
+          <t>华阳新材</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -742,62 +742,62 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>39.32万</t>
+          <t>16.88万</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.48亿</t>
+          <t>8094.76万</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>9.56%</t>
+          <t>10.29%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>5.53%</t>
+          <t>3.28%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-66.25</t>
+          <t>-15.22</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>7.91</t>
         </is>
       </c>
     </row>
@@ -809,12 +809,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>600281</t>
+          <t>603663</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华阳新材</t>
+          <t>三祥新材</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -824,72 +824,72 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.07%</t>
+          <t>10.04%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>14.24万</t>
+          <t>20.37万</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>6795.90万</t>
+          <t>2.36亿</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.29%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2.77%</t>
+          <t>4.82%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-15.22</t>
+          <t>45.48</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>3.92</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>603663</t>
+          <t>603838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>三祥新材</t>
+          <t>四通股份</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -916,72 +916,72 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.04%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>19.89万</t>
+          <t>10.84万</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2.30亿</t>
+          <t>1.04亿</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>5.98%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>4.71%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>45.48</t>
+          <t>-94.93</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.10</t>
         </is>
       </c>
     </row>
@@ -993,12 +993,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>603838</t>
+          <t>603499</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>四通股份</t>
+          <t>翔港科技</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1018,62 +1018,62 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10.13万</t>
+          <t>5.65万</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>9676.94万</t>
+          <t>5927.57万</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>10.86</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>9.28</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>3.16%</t>
+          <t>2.81%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-94.93</t>
+          <t>195.56</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.82</t>
         </is>
       </c>
     </row>
@@ -1085,12 +1085,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>603499</t>
+          <t>603527</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>翔港科技</t>
+          <t>众源新材</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1110,62 +1110,62 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.35万</t>
+          <t>13.69万</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5597.58万</t>
+          <t>1.59亿</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>10.30%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10.86</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>10.93</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2.66%</t>
+          <t>5.62%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>195.56</t>
+          <t>31.89</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2.00</t>
         </is>
       </c>
     </row>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>600172</t>
+          <t>600113</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>黄河旋风</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1202,62 +1202,62 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>230.82万</t>
+          <t>23.73万</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10.22亿</t>
+          <t>2.05亿</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7.33%</t>
+          <t>9.78%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>18.09%</t>
+          <t>5.77%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-13.29</t>
+          <t>26.42</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.68</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>603488</t>
+          <t>600172</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>展鹏科技</t>
+          <t>黄河旋风</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1294,62 +1294,62 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>271.11万</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>429.24万</t>
+          <t>12.03亿</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>7.33%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>9.78</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>21.24%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>-13.29</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>2.22</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>603586</t>
+          <t>603488</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金麒麟</t>
+          <t>展鹏科技</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.00万</t>
+          <t>4474</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9713.86万</t>
+          <t>481.42万</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1406,42 +1406,42 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>9.78</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2.55%</t>
+          <t>0.15%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>28.52</t>
+          <t>41.79</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>605218</t>
+          <t>603586</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>伟时电子</t>
+          <t>金麒麟</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1478,62 +1478,62 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.51万</t>
+          <t>5.40万</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.73亿</t>
+          <t>1.05亿</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11.64%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>20.98</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>19.44</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>17.67</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>4.00%</t>
+          <t>2.76%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>50.90</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>1.71</t>
         </is>
       </c>
     </row>
@@ -1545,12 +1545,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>603178</t>
+          <t>605218</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>圣龙股份</t>
+          <t>伟时电子</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1560,72 +1560,72 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>16.79万</t>
+          <t>10.20万</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.60亿</t>
+          <t>2.09亿</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6.38%</t>
+          <t>11.64%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>20.98</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>43.20</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>44.97</t>
+          <t>19.01</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>41.69</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>7.10%</t>
+          <t>4.79%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>230.26</t>
+          <t>50.90</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1637,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>603013</t>
+          <t>605090</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>亚普股份</t>
+          <t>九丰能源</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1662,62 +1662,62 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>27.00万</t>
+          <t>37.74万</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5.20亿</t>
+          <t>10.43亿</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13.09%</t>
+          <t>10.36%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>27.82</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>25.20</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18.48</t>
+          <t>25.26</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>18.80</t>
+          <t>25.29</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>5.28%</t>
+          <t>14.52%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>19.49</t>
+          <t>11.54</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.33</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>600455</t>
+          <t>603178</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博通股份</t>
+          <t>圣龙股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1744,72 +1744,72 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>45.86</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10.12万</t>
+          <t>17.24万</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2.98亿</t>
+          <t>7.81亿</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.57%</t>
+          <t>6.38%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>45.86</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>28.11</t>
+          <t>43.20</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>44.97</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>41.69</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>16.21%</t>
+          <t>7.29%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>71.97</t>
+          <t>230.26</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>8.57</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>600053</t>
+          <t>603013</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>九鼎投资</t>
+          <t>亚普股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1836,72 +1836,72 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>20.68</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5.20万</t>
+          <t>27.75万</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>7296.71万</t>
+          <t>5.36亿</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10.68%</t>
+          <t>13.09%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>20.68</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>18.22</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>18.48</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>18.80</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>5.43%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>250.11</t>
+          <t>19.49</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -1913,12 +1913,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>603992</t>
+          <t>603615</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>松霖科技</t>
+          <t>茶花股份</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1928,72 +1928,72 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.83万</t>
+          <t>15.77万</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7041.74万</t>
+          <t>2.31亿</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>10.78%</t>
+          <t>11.38%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>17.20</t>
+          <t>13.52</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17.23</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.95%</t>
+          <t>6.52%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>18.86</t>
+          <t>844.01</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.07</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>603598</t>
+          <t>600455</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>引力传媒</t>
+          <t>博通股份</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2020,72 +2020,72 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>29.61</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.97%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>13.89万</t>
+          <t>10.42万</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.21亿</t>
+          <t>3.07亿</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>4.30%</t>
+          <t>5.57%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>29.61</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>28.11</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>15.93</t>
+          <t>29.61</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>14.64</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>5.19%</t>
+          <t>16.69%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>91.87</t>
+          <t>71.97</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>23.85</t>
+          <t>7.12</t>
         </is>
       </c>
     </row>
@@ -2097,12 +2097,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>600159</t>
+          <t>600053</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>九鼎投资</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2112,72 +2112,72 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.97%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>60.05万</t>
+          <t>5.76万</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.31亿</t>
+          <t>8102.22万</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>10.68%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>14.31</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>7.23%</t>
+          <t>1.33%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>646.85</t>
+          <t>250.11</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>2.16</t>
         </is>
       </c>
     </row>
@@ -2189,12 +2189,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>603021</t>
+          <t>603721</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>山东华鹏</t>
+          <t>中广天择</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2204,72 +2204,72 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.97%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>30.03万</t>
+          <t>20.40万</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.10亿</t>
+          <t>4.54亿</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>6.70%</t>
+          <t>10.93%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>21.26</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>9.39%</t>
+          <t>15.69%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-10.96</t>
+          <t>-780.60</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.83</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>600658</t>
+          <t>603992</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>电子城</t>
+          <t>松霖科技</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2296,72 +2296,72 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>19.43万</t>
+          <t>4.05万</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.10亿</t>
+          <t>7466.35万</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.78%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>17.20</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>17.23</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1.74%</t>
+          <t>1.01%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>433.54</t>
+          <t>18.86</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>3.23</t>
         </is>
       </c>
     </row>

--- a/Assets/sh_data.xlsx
+++ b/Assets/sh_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>市净率</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>time_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -533,12 +538,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>688238</t>
+          <t>600698</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>和元生物</t>
+          <t>湖南天雁</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,1653 +553,1743 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>19.96%</t>
+          <t>10.09%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>50.86万</t>
+          <t>20.61万</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>6.01亿</t>
+          <t>1.26亿</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12.66%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>10.27</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>11.77%</t>
+          <t>2.48%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-84.14</t>
+          <t>1142.05</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>601929</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>688170</t>
+          <t>吉视传媒</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德龙激光</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>47.29</t>
+          <t>10.09%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16.68%</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>814.67万</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15.07万</t>
+          <t>20.02亿</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>7.07亿</t>
+          <t>10.09%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13.87%</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>48.64</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>43.02</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>46.68</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>40.53</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>24.68%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>18.92%</t>
+          <t>-26.82</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-508.27</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>600619</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>海立股份</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>600281</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华阳新材</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>10.05%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.07%</t>
+          <t>136.29万</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>11.18亿</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.88万</t>
+          <t>11.88%</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8094.76万</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10.29%</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>-77.09</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>3.28%</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-15.22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>603569</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>长久物流</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>603663</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>三祥新材</t>
+          <t>10.04%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>41.55万</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20亿</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.68%</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>13.86</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7.00%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>603239</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>浙江仙通</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>11.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>10.04%</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>20.37万</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2.36亿</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>7.04%</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>11.73</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>10.98</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>10.66</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>4.82%</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>45.48</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>3.92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>603838</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>四通股份</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>20.53万</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3.58亿</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.00%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>16.25</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7.58%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>37.44</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>603286</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>日盈电子</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>10.03%</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>10.84万</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.04亿</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>5.98%</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>3.39%</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-94.93</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>3.10</t>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>31.19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>603499</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>翔港科技</t>
+          <t>16.90万</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>5.27亿</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3.67%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>28.35</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19.19%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>438.29</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>605005</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>合兴股份</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.03%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>5.65万</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5927.57万</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>9.83%</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>10.86</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>9.89</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>9.90</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2.81%</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>195.56</t>
-        </is>
-      </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>10.02%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>603527</t>
+          <t>10.10万</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>众源新材</t>
+          <t>2.04亿</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>9.85%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>19.69%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>38.40</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>603863</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>松炀资源</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>10.03%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>13.69万</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1.59亿</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>10.30%</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>11.96</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>10.93</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>10.87</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>5.62%</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>31.89</t>
+          <t>41.91</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>3.81</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12.00万</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>600113</t>
+          <t>4.87亿</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>38.10</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5.86%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-37.17</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>605218</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>伟时电子</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.02%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>23.73万</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2.05亿</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>9.78%</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>8.11</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>5.77%</t>
+          <t>30.72</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>26.42</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>33.57万</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9.87亿</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>600172</t>
+          <t>10.81%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>黄河旋风</t>
+          <t>30.72</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>27.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15.77%</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>74.53</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>600605</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>汇通能源</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10.02%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>271.11万</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>12.03亿</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>7.33%</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>24.57</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>21.24%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-13.29</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>10.27万</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2.47亿</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11.24%</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>603488</t>
+          <t>24.57</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>展鹏科技</t>
+          <t>22.06</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>603536</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>惠发食品</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>10.02%</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4474</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>481.42万</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>9.97%</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4.31万</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>4472.61万</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>10.76</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>9.78</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.15%</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>41.79</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>3.20</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>603586</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金麒麟</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.76%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-63.52</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>603011</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>合锻智能</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>19.44</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10.02%</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>5.40万</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1.05亿</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>19.44</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>19.44</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>19.44</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>17.67</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2.76%</t>
+          <t>64.06万</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>28.52</t>
+          <t>4.96亿</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>9.82%</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>7.84</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>605218</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>伟时电子</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12.96%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>603388</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>元成股份</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.98</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>10.02%</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>10.20万</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2.09亿</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>11.64%</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>20.98</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>19.07</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>56.67万</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>4.79%</t>
+          <t>5.77亿</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>50.90</t>
+          <t>10.17%</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>9.42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>605090</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>九丰能源</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>17.40%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9838.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>600178</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>东安动力</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27.82</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>37.74万</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>10.43亿</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>10.36%</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>27.82</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>25.20</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>25.26</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>25.29</t>
+          <t>4.13万</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>4284.42万</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>14.52%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>10.38</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>603178</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>圣龙股份</t>
+          <t>0.89%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>123.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>600550</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>保变电气</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>45.86</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>17.24万</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>7.81亿</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>6.38%</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>45.86</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>43.20</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>44.97</t>
+          <t>64.40万</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>41.69</t>
+          <t>3.23亿</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>10.61%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>7.29%</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>230.26</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>4.62</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>603013</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>亚普股份</t>
+          <t>-96.45</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>603336</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>宏辉果蔬</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>20.68</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>27.75万</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5.36亿</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13.09%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>20.68</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>61.91万</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18.48</t>
+          <t>3.55亿</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>18.80</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>5.43%</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19.49</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5.75</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10.85%</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>603615</t>
+          <t>75.57</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>茶花股份</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>688478</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>晶升股份</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>15.08</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>9.99%</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15.77万</t>
+          <t>53.89</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.31亿</t>
+          <t>9.73%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11.38%</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>15.08</t>
+          <t>4.31万</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>13.52</t>
+          <t>2.26亿</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>11.61%</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>53.98</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>48.28</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>6.52%</t>
+          <t>48.28</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>844.01</t>
+          <t>49.11</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>13.82%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>128.84</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>600455</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博通股份</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>688150</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>莱特光电</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>29.61</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>9.99%</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>24.43</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10.42万</t>
+          <t>8.63%</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3.07亿</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.57%</t>
+          <t>8.82万</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>2.08亿</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>28.11</t>
+          <t>11.25%</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>29.61</t>
+          <t>24.73</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>16.69%</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>71.97</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>131.67</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>600053</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>九鼎投资</t>
+          <t>688047</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>龙芯中科</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>14.31</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>100.48</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5.76万</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>8102.22万</t>
+          <t>8.96万</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10.68%</t>
+          <t>8.82亿</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>14.31</t>
+          <t>9.31%</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>101.11</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>250.11</t>
+          <t>3.22%</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-146.06</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>10.91</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>603721</t>
+          <t>688152</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中广天择</t>
+          <t>麒麟信安</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2204,166 +2299,75 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>8.55%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>20.40万</t>
+          <t>2.50万</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.54亿</t>
+          <t>1.90亿</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.93%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>79.41</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>72.12</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>21.26</t>
+          <t>72.12</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>72.78</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>15.69%</t>
+          <t>8.29%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-780.60</t>
+          <t>-138.10</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>603992</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>松霖科技</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>股吧 资金流 数据</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>19.07</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9.98%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>4.05万</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>7466.35万</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>10.78%</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>19.07</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>17.20</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>17.34</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>1.01%</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>18.86</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/sh_data.xlsx
+++ b/Assets/sh_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>time_id</t>
+          <t>日期</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>600698</t>
+          <t>688719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湖南天雁</t>
+          <t>爱科赛博</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -553,1821 +553,1922 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>73.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.09%</t>
+          <t>13.48%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20.61万</t>
+          <t>3.37万</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.26亿</t>
+          <t>2.37亿</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>17.79%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>74.88</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>63.41</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>64.39</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>64.46</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.48%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>1142.05</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>8.57</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>601929</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>吉视传媒</t>
+          <t>688577</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>浙海德曼</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.09%</t>
+          <t>72.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>12.31%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>814.67万</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20.02亿</t>
+          <t>1.47万</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10.09%</t>
+          <t>1.03亿</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>14.32%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>74.28</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>65.00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>65.05</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>64.82</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>24.68%</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>-26.82</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>123.84</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>600619</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>海立股份</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>600287</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>江苏舜天</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8.43</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.05%</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>136.29万</t>
+          <t>10.07%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11.18亿</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.88%</t>
+          <t>35.55万</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>2.23亿</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>9.73%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>-77.09</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>8.14%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>39.42</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>603569</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>长久物流</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>605208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>永茂泰</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>15.35</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.04%</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>41.55万</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.20亿</t>
+          <t>10.05%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.68%</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>20.27万</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>13.86</t>
+          <t>2.06亿</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>10.47%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7.00%</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>76.06</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12.03%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>603239</t>
+          <t>92.13</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>浙江仙通</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>600250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>南京商旅</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.53万</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.58亿</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>10.04%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>16.58</t>
+          <t>11.11万</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>8437.12万</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16.25</t>
+          <t>11.28%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>7.18</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>37.44</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>603286</t>
+          <t>3.91%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>日盈电子</t>
+          <t>50.37</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>600335</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16.90万</t>
+          <t>国机汽车</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.27亿</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.67%</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>10.04%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30.15</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>69.03万</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>28.35</t>
+          <t>6.28亿</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>19.19%</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>438.29</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>605005</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>合兴股份</t>
+          <t>4.61%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>42.06</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10.10万</t>
+          <t>603291</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.04亿</t>
+          <t>联合水务</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.85%</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>15.71万</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.60亿</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>19.69%</t>
+          <t>10.62%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>38.40</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>603863</t>
+          <t>15.35</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>松炀资源</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>37.12%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>41.91</t>
+          <t>49.96</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>12.00万</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.87亿</t>
+          <t>603211</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>晋拓股份</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>41.91</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.10</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>38.85</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>38.10</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>13.94万</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5.86%</t>
+          <t>2.39亿</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-37.17</t>
+          <t>10.46%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>605218</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>伟时电子</t>
+          <t>16.25</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>30.72</t>
+          <t>20.51%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>93.49</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>33.57万</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9.87亿</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10.81%</t>
+          <t>603536</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30.72</t>
+          <t>惠发食品</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>27.70</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>27.72</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>27.93</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15.77%</t>
+          <t>29.72万</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>74.53</t>
+          <t>3.26亿</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>12.05%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>600605</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>汇通能源</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>10.37</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>24.57</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>12.15%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>-69.89</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>10.27万</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2.47亿</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11.24%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24.57</t>
+          <t>600280</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22.06</t>
+          <t>中央商场</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22.34</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.98%</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>129.48万</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>5.59亿</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13.45%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>603536</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>惠发食品</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>9.97%</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>11.48%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>4.31万</t>
+          <t>544.37</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>4472.61万</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>603721</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10.37</t>
+          <t>中广天择</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>26.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-63.52</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>10.16万</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2.60亿</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>603011</t>
+          <t>11.29%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>合锻智能</t>
+          <t>26.02</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>23.35</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>23.37</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>23.65</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>64.06万</t>
+          <t>7.82%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>4.96亿</t>
+          <t>-869.85</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>9.82%</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>600523</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>贵航股份</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.96%</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>39.24</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26.00万</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>603388</t>
+          <t>3.95亿</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>元成股份</t>
+          <t>10.51%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>14.24</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>14.27</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>56.67万</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>5.77亿</t>
+          <t>6.44%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>10.17%</t>
+          <t>42.75</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9.43</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>600178</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>东安动力</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17.40%</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9838.93</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>600178</t>
+          <t>4.21万</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>东安动力</t>
+          <t>4803.10万</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>11.42</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>10.38</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>9.96%</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>4.13万</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>4284.42万</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.91%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>135.96</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>600742</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>一汽富维</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>123.58</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>600550</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>保变电气</t>
+          <t>102.63万</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>11.72亿</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>64.40万</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>3.23亿</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>10.61%</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>15.01%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>603037</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-96.45</t>
+          <t>凯众股份</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.19</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25.17</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>603336</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>宏辉果蔬</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>17.15万</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>4.08亿</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>25.17</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>61.91万</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3.55亿</t>
+          <t>22.76</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>22.88</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>12.63%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>47.60</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10.85%</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>75.57</t>
+          <t>603286</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>日盈电子</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>688478</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>晶升股份</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53.89</t>
+          <t>28.82万</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>9.73%</t>
+          <t>9.11亿</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>15.93%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.31万</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2.26亿</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>11.61%</t>
+          <t>31.40</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>53.98</t>
+          <t>31.19</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>48.28</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>48.28</t>
+          <t>32.72%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>49.11</t>
+          <t>482.13</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>13.82%</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>128.84</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>605228</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>神通科技</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>688150</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>莱特光电</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24.43</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>8.63%</t>
+          <t>19.01万</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.72亿</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>8.82万</t>
+          <t>7.61%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.08亿</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>24.73</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>19.32%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>205.62</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4.98%</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>131.67</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>605005</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>688047</t>
+          <t>合兴股份</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>龙芯中科</t>
+          <t>股吧 资金流 数据</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>股吧 资金流 数据</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100.48</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.86万</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>8.96万</t>
+          <t>6386.25万</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>8.82亿</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9.31%</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>101.11</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>22.35</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>20.32</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>5.57%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3.22%</t>
+          <t>42.24</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>-146.06</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>10.91</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>605378</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>野马电池</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>股吧 资金流 数据</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.99%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>3.41万</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>8545.77万</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10.54%</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>23.20</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>23.25</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>10.21%</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>33.54</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>688152</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>麒麟信安</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>603048</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙江黎明</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>股吧 资金流 数据</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>79.00</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8.55%</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2.50万</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1.90亿</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>10.02%</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>79.41</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>72.12</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>72.12</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>72.78</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>8.29%</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>-138.10</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>7.71万</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1.58亿</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>19.23</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>20.45%</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/sh_data.xlsx
+++ b/Assets/sh_data.xlsx
@@ -538,12 +538,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>688719</t>
+          <t>688652</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>爱科赛博</t>
+          <t>N京仪</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -553,77 +553,77 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.15</t>
+          <t>56.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.48%</t>
+          <t>77.03%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>24.61</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>3.37万</t>
+          <t>20.57万</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.37亿</t>
+          <t>11.79亿</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17.79%</t>
+          <t>21.91%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>74.88</t>
+          <t>62.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>63.41</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>64.39</t>
+          <t>60.12</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>64.46</t>
+          <t>31.95</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>54.31%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>61.02</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -635,12 +635,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>688577</t>
+          <t>688261</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙海德曼</t>
+          <t>东微半导</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -650,77 +650,77 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.80</t>
+          <t>102.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12.31%</t>
+          <t>11.79%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.47万</t>
+          <t>3.81万</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.03亿</t>
+          <t>3.88亿</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>14.32%</t>
+          <t>15.89%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>74.28</t>
+          <t>107.50</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>65.05</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>64.82</t>
+          <t>91.24</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>6.46%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>123.84</t>
+          <t>54.81</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>600287</t>
+          <t>603903</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏舜天</t>
+          <t>中持股份</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -747,77 +747,77 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.07%</t>
+          <t>10.04%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>35.55万</t>
+          <t>19.86万</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.23亿</t>
+          <t>2.20亿</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>9.73%</t>
+          <t>11.97%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>10.16</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>8.14%</t>
+          <t>9.82%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>39.42</t>
+          <t>25.07</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>605208</t>
+          <t>603211</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>永茂泰</t>
+          <t>晋拓股份</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -844,77 +844,77 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.05%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20.27万</t>
+          <t>8.13万</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.06亿</t>
+          <t>1.60亿</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>10.47%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>12.03%</t>
+          <t>11.97%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>102.85</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.69</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>600250</t>
+          <t>600822</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南京商旅</t>
+          <t>上海物贸</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -941,77 +941,77 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.04%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11.11万</t>
+          <t>35.61万</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8437.12万</t>
+          <t>4.28亿</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11.28%</t>
+          <t>13.20%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>12.75</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>11.59</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>3.91%</t>
+          <t>8.99%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>50.37</t>
+          <t>36.83</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>600335</t>
+          <t>600509</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国机汽车</t>
+          <t>天富能源</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1038,77 +1038,77 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.04%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>69.03万</t>
+          <t>61.05万</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>6.28亿</t>
+          <t>3.98亿</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>9.83%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>18.05</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4.61%</t>
+          <t>5.30%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>42.06</t>
+          <t>16.71</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>603291</t>
+          <t>600250</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>联合水务</t>
+          <t>南京商旅</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1135,77 +1135,77 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15.71万</t>
+          <t>17.56万</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2.60亿</t>
+          <t>1.52亿</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>10.62%</t>
+          <t>6.88%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>37.12%</t>
+          <t>6.18%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>49.96</t>
+          <t>55.40</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>603211</t>
+          <t>603286</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晋拓股份</t>
+          <t>日盈电子</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1232,77 +1232,77 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>37.74</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>13.94万</t>
+          <t>10.74万</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.39亿</t>
+          <t>4.03亿</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10.46%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>37.74</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>36.81</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>37.34</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>16.25</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>20.51%</t>
+          <t>12.19%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>93.49</t>
+          <t>530.33</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1329,77 +1329,77 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.99%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>21.65万</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2.59亿</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>13.94%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>11.41</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10.03%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>29.72万</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>3.26亿</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>12.05%</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>10.37</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>12.15%</t>
+          <t>8.85%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-69.89</t>
+          <t>-76.87</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>600280</t>
+          <t>603388</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中央商场</t>
+          <t>元成股份</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1426,77 +1426,77 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>129.48万</t>
+          <t>55.00万</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>5.59亿</t>
+          <t>6.17亿</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>13.45%</t>
+          <t>10.08%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>10.76</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>11.48%</t>
+          <t>16.88%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>544.37</t>
+          <t>11165.95</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>603721</t>
+          <t>603535</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中广天择</t>
+          <t>嘉诚国际</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1523,77 +1523,77 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10.16万</t>
+          <t>7.02万</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2.60亿</t>
+          <t>1.33亿</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11.29%</t>
+          <t>9.35%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>26.02</t>
+          <t>18.94</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>23.35</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>23.37</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>23.65</t>
+          <t>17.22</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>20.58</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>7.82%</t>
+          <t>3.22%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-869.85</t>
+          <t>19.66</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>600523</t>
+          <t>600178</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>贵航股份</t>
+          <t>东安动力</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1620,77 +1620,77 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>26.00万</t>
+          <t>5.55万</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.95亿</t>
+          <t>6972.69万</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>10.51%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>14.20</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14.24</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>14.27</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>6.44%</t>
+          <t>1.20%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>42.75</t>
+          <t>149.54</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1702,12 +1702,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>600178</t>
+          <t>600775</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东安动力</t>
+          <t>南京熊猫</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1717,77 +1717,77 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4.21万</t>
+          <t>104.53万</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4803.10万</t>
+          <t>16.11亿</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>11.92%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>14.45</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.91%</t>
+          <t>15.56%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>135.96</t>
+          <t>-342.96</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>600742</t>
+          <t>603006</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>一汽富维</t>
+          <t>联明股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1814,77 +1814,77 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>102.63万</t>
+          <t>3.45万</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11.72亿</t>
+          <t>5057.85万</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12.02%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12.08</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10.83</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>15.01%</t>
+          <t>1.81%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>15.54</t>
+          <t>27.95</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>603037</t>
+          <t>605228</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>凯众股份</t>
+          <t>神通科技</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1911,77 +1911,77 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.17</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.01%</t>
+          <t>9.97%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>17.15万</t>
+          <t>2.99万</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.08亿</t>
+          <t>4852.99万</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>10.97%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>25.17</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>22.66</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>22.76</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>22.88</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>12.63%</t>
+          <t>3.04%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>47.60</t>
+          <t>226.13</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>603286</t>
+          <t>603023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>日盈电子</t>
+          <t>威帝股份</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2008,77 +2008,77 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>28.82万</t>
+          <t>82.53万</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>9.11亿</t>
+          <t>4.60亿</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15.93%</t>
+          <t>9.58%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>29.34</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>31.40</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>32.72%</t>
+          <t>14.68%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>482.13</t>
+          <t>1317.31</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>605228</t>
+          <t>603022</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>神通科技</t>
+          <t>新通联</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2105,77 +2105,77 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>19.01万</t>
+          <t>6.03万</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.72亿</t>
+          <t>6612.47万</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.61%</t>
+          <t>10.26%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>13.40</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>6.57</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>19.32%</t>
+          <t>3.01%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>205.62</t>
+          <t>52.65</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>605005</t>
+          <t>688518</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>合兴股份</t>
+          <t>联赢激光</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2202,77 +2202,77 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>22.35</t>
+          <t>23.30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>8.88%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.86万</t>
+          <t>14.44万</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6386.25万</t>
+          <t>3.27亿</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.28%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>22.35</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>22.35</t>
+          <t>21.20</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>22.35</t>
+          <t>21.22</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>5.57%</t>
+          <t>4.26%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>42.24</t>
+          <t>23.47</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -2284,12 +2284,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>605378</t>
+          <t>603036</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>野马电池</t>
+          <t>如通股份</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2299,77 +2299,77 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>8.63%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>3.41万</t>
+          <t>9.47万</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>8545.77万</t>
+          <t>1.45亿</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.54%</t>
+          <t>9.66%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>23.20</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23.25</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>23.33</t>
+          <t>14.49</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>10.21%</t>
+          <t>4.60%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>33.54</t>
+          <t>40.36</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>603048</t>
+          <t>688155</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>浙江黎明</t>
+          <t>先惠技术</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2396,77 +2396,77 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>60.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>8.52%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>7.71万</t>
+          <t>2.99万</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.58亿</t>
+          <t>1.75亿</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>9.33%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>61.00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>19.23</t>
+          <t>55.84</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19.31</t>
+          <t>55.84</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>19.23</t>
+          <t>55.29</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>20.45%</t>
+          <t>3.89%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>78.92</t>
+          <t>133.84</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-29</t>
         </is>
       </c>
     </row>

--- a/Assets/sh_data.xlsx
+++ b/Assets/sh_data.xlsx
@@ -538,12 +538,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>688652</t>
+          <t>688253</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N京仪</t>
+          <t>英诺特</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -553,77 +553,77 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56.56</t>
+          <t>33.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>77.03%</t>
+          <t>11.35%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24.61</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20.57万</t>
+          <t>9.03万</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11.79亿</t>
+          <t>2.90亿</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21.91%</t>
+          <t>13.21%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>62.00</t>
+          <t>33.98</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>60.12</t>
+          <t>30.09</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>31.95</t>
+          <t>30.13</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>54.31%</t>
+          <t>13.51%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>61.02</t>
+          <t>39.56</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -635,12 +635,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>688261</t>
+          <t>605018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东微半导</t>
+          <t>长华集团</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -650,77 +650,77 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>102.00</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.79%</t>
+          <t>10.04%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>3.81万</t>
+          <t>10.78万</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.88亿</t>
+          <t>1.43亿</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>15.89%</t>
+          <t>10.20%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>107.50</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>12.23</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>12.30</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>91.24</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6.46%</t>
+          <t>2.30%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>54.81</t>
+          <t>83.52</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>603903</t>
+          <t>603536</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中持股份</t>
+          <t>惠发食品</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -757,67 +757,67 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19.86万</t>
+          <t>65.41万</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.20亿</t>
+          <t>8.41亿</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11.97%</t>
+          <t>16.97%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11.40</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>10.16</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>11.70</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>9.82%</t>
+          <t>26.74%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>25.07</t>
+          <t>-84.59</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>603211</t>
+          <t>600178</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>晋拓股份</t>
+          <t>东安动力</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -844,77 +844,77 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.01%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.13万</t>
+          <t>133.75万</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.60亿</t>
+          <t>17.93亿</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>13.69%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>12.56</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>9.52</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>11.97%</t>
+          <t>28.95%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>102.85</t>
+          <t>164.54</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>600822</t>
+          <t>601279</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上海物贸</t>
+          <t>英利汽车</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -941,77 +941,77 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.01%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35.61万</t>
+          <t>20.17万</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4.28亿</t>
+          <t>1.39亿</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13.20%</t>
+          <t>11.13%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>12.75</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>11.59</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>8.99%</t>
+          <t>10.32%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>36.83</t>
+          <t>122.29</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>600509</t>
+          <t>600593</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天富能源</t>
+          <t>大连圣亚</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1038,77 +1038,77 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>61.05万</t>
+          <t>6.81万</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.98亿</t>
+          <t>1.23亿</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9.83%</t>
+          <t>10.67%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>17.02</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>17.05</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>5.30%</t>
+          <t>5.29%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16.71</t>
+          <t>16.46</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>600250</t>
+          <t>601156</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南京商旅</t>
+          <t>东航物流</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1135,77 +1135,77 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17.56万</t>
+          <t>59.31万</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.52亿</t>
+          <t>7.81亿</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>12.19</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>12.27</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>6.18%</t>
+          <t>7.40%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>55.40</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>603286</t>
+          <t>603211</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>日盈电子</t>
+          <t>晋拓股份</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1232,77 +1232,77 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>10.74万</t>
+          <t>6.15万</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4.03亿</t>
+          <t>1.33亿</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>37.74</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>36.81</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>37.34</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>34.31</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>12.19%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>530.33</t>
+          <t>113.15</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1314,12 +1314,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>603536</t>
+          <t>601798</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>惠发食品</t>
+          <t>蓝科高新</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1329,77 +1329,77 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21.65万</t>
+          <t>21.16万</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.59亿</t>
+          <t>1.69亿</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>13.94%</t>
+          <t>10.41%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>8.85%</t>
+          <t>5.97%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-76.87</t>
+          <t>-41.07</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>603388</t>
+          <t>600250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>元成股份</t>
+          <t>南京商旅</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1426,77 +1426,77 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>55.00万</t>
+          <t>12.69万</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>6.17亿</t>
+          <t>1.23亿</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10.08%</t>
+          <t>1.36%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11.78</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>16.88%</t>
+          <t>4.46%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>11165.95</t>
+          <t>60.94</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>603535</t>
+          <t>603721</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>嘉诚国际</t>
+          <t>中广天择</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1523,77 +1523,77 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.02万</t>
+          <t>21.70万</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.33亿</t>
+          <t>5.75亿</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>10.84%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>18.94</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>24.80</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>25.01</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>20.58</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>3.22%</t>
+          <t>16.69%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19.66</t>
+          <t>-919.66</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>600178</t>
+          <t>600571</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>东安动力</t>
+          <t>信雅达</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1620,77 +1620,77 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5.55万</t>
+          <t>44.74万</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>6972.69万</t>
+          <t>4.90亿</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>10.04%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>149.54</t>
+          <t>72.55</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1702,12 +1702,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>600775</t>
+          <t>603023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南京熊猫</t>
+          <t>威帝股份</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1717,77 +1717,77 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>104.53万</t>
+          <t>116.93万</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>16.11亿</t>
+          <t>6.67亿</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11.92%</t>
+          <t>18.12%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>15.56%</t>
+          <t>20.80%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-342.96</t>
+          <t>1448.12</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>603006</t>
+          <t>605199</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>联明股份</t>
+          <t>葫芦娃</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1814,77 +1814,77 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>18.89</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>7.21%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.45万</t>
+          <t>21.12万</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5057.85万</t>
+          <t>3.85亿</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>11.92%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>19.21</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>17.11</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>17.58</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>13.33</t>
+          <t>17.62</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.81%</t>
+          <t>5.28%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>27.95</t>
+          <t>73.14</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>6.92</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>605228</t>
+          <t>600129</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>神通科技</t>
+          <t>太极集团</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1911,77 +1911,77 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>51.58</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9.97%</t>
+          <t>7.15%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2.99万</t>
+          <t>16.30万</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4852.99万</t>
+          <t>8.14亿</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>9.56%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>52.10</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>47.50</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>48.11</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>48.14</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>3.04%</t>
+          <t>2.93%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>226.13</t>
+          <t>28.42</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>603023</t>
+          <t>600789</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>威帝股份</t>
+          <t>鲁抗医药</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2008,77 +2008,77 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>7.02%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>82.53万</t>
+          <t>163.44万</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4.60亿</t>
+          <t>13.08亿</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>9.58%</t>
+          <t>11.37%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>14.68%</t>
+          <t>18.34%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1317.31</t>
+          <t>29.08</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>603022</t>
+          <t>605090</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新通联</t>
+          <t>九丰能源</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2105,77 +2105,77 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>30.85</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>7.01%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6.03万</t>
+          <t>19.12万</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>6612.47万</t>
+          <t>5.81亿</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10.26%</t>
+          <t>7.94%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>31.05</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>28.76</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>28.76</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>28.83</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>3.01%</t>
+          <t>7.36%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>52.65</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>688518</t>
+          <t>688228</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>联赢激光</t>
+          <t>开普云</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2202,77 +2202,77 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23.30</t>
+          <t>52.90</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.88%</t>
+          <t>6.93%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>14.44万</t>
+          <t>5.94万</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.27亿</t>
+          <t>3.11亿</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10.28%</t>
+          <t>6.87%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>53.40</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>21.20</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>21.22</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>49.47</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>4.26%</t>
+          <t>8.79%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23.47</t>
+          <t>-175.31</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -2284,12 +2284,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>603036</t>
+          <t>600613</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>如通股份</t>
+          <t>神奇制药</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2299,77 +2299,77 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8.63%</t>
+          <t>6.92%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9.47万</t>
+          <t>38.54万</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.45亿</t>
+          <t>3.30亿</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>9.66%</t>
+          <t>9.71%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>14.49</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>4.60%</t>
+          <t>8.04%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>40.36</t>
+          <t>53.51</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>688155</t>
+          <t>600366</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>先惠技术</t>
+          <t>宁波韵升</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2396,77 +2396,77 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>60.00</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8.52%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.99万</t>
+          <t>79.60万</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.75亿</t>
+          <t>6.37亿</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>9.33%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>61.00</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>55.84</t>
+          <t>7.47</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>55.84</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>55.29</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>3.89%</t>
+          <t>7.48%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>133.84</t>
+          <t>-27.13</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-30</t>
         </is>
       </c>
     </row>

--- a/Assets/sh_data.xlsx
+++ b/Assets/sh_data.xlsx
@@ -538,12 +538,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>688253</t>
+          <t>600408</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英诺特</t>
+          <t>安泰集团</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -553,77 +553,77 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.55</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.35%</t>
+          <t>10.16%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9.03万</t>
+          <t>44.74万</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2.90亿</t>
+          <t>1.22亿</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>13.21%</t>
+          <t>10.16%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>33.98</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30.09</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>30.13</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>13.51%</t>
+          <t>4.44%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>39.56</t>
+          <t>-4.88</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -635,12 +635,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>605018</t>
+          <t>600661</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长华集团</t>
+          <t>昂立教育</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -650,77 +650,77 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13.48</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.04%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.78万</t>
+          <t>10.79万</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.43亿</t>
+          <t>1.08亿</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10.20%</t>
+          <t>10.78%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13.48</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12.23</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12.30</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>12.25</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>17.99</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2.30%</t>
+          <t>3.76%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>83.52</t>
+          <t>-25.65</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>603536</t>
+          <t>600593</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>惠发食品</t>
+          <t>大连圣亚</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -747,77 +747,77 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.04%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>65.41万</t>
+          <t>4.51万</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8.41亿</t>
+          <t>9290.68万</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16.97%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>11.70</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>26.74%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-84.59</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>600178</t>
+          <t>603189</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东安动力</t>
+          <t>网达软件</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -844,77 +844,77 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>15.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>133.75万</t>
+          <t>12.39万</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>17.93亿</t>
+          <t>1.96亿</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>13.69%</t>
+          <t>9.12%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13.82</t>
+          <t>15.92</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>14.60</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>14.93</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>12.56</t>
+          <t>14.47</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>9.52</t>
+          <t>20.17</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>28.95%</t>
+          <t>4.60%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>164.54</t>
+          <t>-62.50</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>601279</t>
+          <t>600250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英利汽车</t>
+          <t>南京商旅</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -941,77 +941,77 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>20.17万</t>
+          <t>5.46万</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.39亿</t>
+          <t>5812.25万</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11.13%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>10.32%</t>
+          <t>1.92%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>122.29</t>
+          <t>67.05</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>600593</t>
+          <t>600128</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大连圣亚</t>
+          <t>苏豪弘业</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1038,77 +1038,77 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>6.81万</t>
+          <t>15.39万</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.23亿</t>
+          <t>1.53亿</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10.67%</t>
+          <t>9.79%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>16.94</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>17.02</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17.05</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>14.46</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>5.29%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>16.46</t>
+          <t>87.62</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>601156</t>
+          <t>603719</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东航物流</t>
+          <t>良品铺子</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1135,77 +1135,77 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13.40</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>59.31万</t>
+          <t>7.65万</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7.81亿</t>
+          <t>1.62亿</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>9.93%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13.40</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>12.19</t>
+          <t>20.40</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12.27</t>
+          <t>20.40</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>19.38</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>7.40%</t>
+          <t>1.91%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>33.52</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>603211</t>
+          <t>603598</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>晋拓股份</t>
+          <t>引力传媒</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1232,77 +1232,77 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6.15万</t>
+          <t>53.42万</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.33亿</t>
+          <t>8.60亿</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19.67</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>9.05%</t>
+          <t>19.94%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>113.15</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>24.43</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1314,12 +1314,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>601798</t>
+          <t>603535</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝科高新</t>
+          <t>嘉诚国际</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1339,67 +1339,67 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21.16万</t>
+          <t>7.59万</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.69亿</t>
+          <t>1.48亿</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>10.41%</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>18.20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>5.97%</t>
+          <t>3.48%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-41.07</t>
+          <t>20.78</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>600250</t>
+          <t>603721</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南京商旅</t>
+          <t>中广天择</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1436,67 +1436,67 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12.69万</t>
+          <t>5.82万</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.23亿</t>
+          <t>1.76亿</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.36%</t>
+          <t>0.91%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>30.01</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>30.01</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>4.46%</t>
+          <t>4.48%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>60.94</t>
+          <t>-1011.60</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1508,12 +1508,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>603721</t>
+          <t>603536</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中广天择</t>
+          <t>惠发食品</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1523,77 +1523,77 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>27.51</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21.70万</t>
+          <t>37.61万</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5.75亿</t>
+          <t>5.58亿</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.84%</t>
+          <t>11.95%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>27.51</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>24.80</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>25.01</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>16.69%</t>
+          <t>15.37%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-919.66</t>
+          <t>-93.04</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>600571</t>
+          <t>600228</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>信雅达</t>
+          <t>返利科技</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1620,77 +1620,77 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>44.74万</t>
+          <t>9.25万</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.90亿</t>
+          <t>7996.34万</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5.88%</t>
+          <t>7.49%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>10.04</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>7.41</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>10.04%</t>
+          <t>3.32%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>72.55</t>
+          <t>-315.21</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1717,77 +1717,77 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.98%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>142.82万</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>9.84亿</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>7.92%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>6.31</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>9.93%</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>116.93万</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>6.67亿</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>18.12%</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5.74</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>20.80%</t>
+          <t>25.41%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1448.12</t>
+          <t>1592.71</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1799,12 +1799,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>605199</t>
+          <t>603211</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>葫芦娃</t>
+          <t>晋拓股份</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1814,77 +1814,77 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18.89</t>
+          <t>23.80</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>7.21%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21.12万</t>
+          <t>39.18万</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3.85亿</t>
+          <t>8.52亿</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>11.92%</t>
+          <t>18.67%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>19.21</t>
+          <t>23.80</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>17.11</t>
+          <t>19.76</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>17.58</t>
+          <t>22.19</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>20.14</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>5.28%</t>
+          <t>57.65%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>73.14</t>
+          <t>124.45</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>6.92</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>600129</t>
+          <t>600571</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>太极集团</t>
+          <t>信雅达</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1911,77 +1911,77 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>51.58</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.15%</t>
+          <t>9.96%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>16.30万</t>
+          <t>7.33万</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>8.14亿</t>
+          <t>8898.62万</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>9.56%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>52.10</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>47.50</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>48.11</t>
+          <t>12.14</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>48.14</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2.93%</t>
+          <t>1.64%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>28.42</t>
+          <t>79.78</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>600789</t>
+          <t>688668</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鲁抗医药</t>
+          <t>鼎通科技</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2008,77 +2008,77 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>58.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.02%</t>
+          <t>7.64%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>163.44万</t>
+          <t>5.04万</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>13.08亿</t>
+          <t>2.92亿</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>11.37%</t>
+          <t>7.75%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>59.18</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.89</t>
+          <t>55.00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>53.96</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>18.34%</t>
+          <t>10.83%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>29.08</t>
+          <t>81.18</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>605090</t>
+          <t>603488</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>九丰能源</t>
+          <t>展鹏科技</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2105,77 +2105,77 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>30.85</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.01%</t>
+          <t>6.14%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>19.12万</t>
+          <t>22.07万</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5.81亿</t>
+          <t>2.32亿</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.94%</t>
+          <t>11.08%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>31.05</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>28.76</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>28.76</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>28.83</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>7.36%</t>
+          <t>7.56%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>40.94</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>688228</t>
+          <t>601599</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>开普云</t>
+          <t>浙文影业</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2202,77 +2202,77 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>52.90</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.93%</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>5.94万</t>
+          <t>60.69万</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.11亿</t>
+          <t>2.63亿</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6.87%</t>
+          <t>9.20%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>53.40</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>49.47</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>8.79%</t>
+          <t>6.80%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-175.31</t>
+          <t>32.37</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -2284,12 +2284,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>600613</t>
+          <t>600249</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>神奇制药</t>
+          <t>两面针</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2299,77 +2299,77 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.92%</t>
+          <t>6.03%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>38.54万</t>
+          <t>42.29万</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.30亿</t>
+          <t>2.64亿</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>9.71%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>8.99</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>8.04%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>53.51</t>
+          <t>65.37</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>600366</t>
+          <t>605577</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>宁波韵升</t>
+          <t>龙版传媒</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2396,77 +2396,77 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>16.58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>79.60万</t>
+          <t>21.09万</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6.37亿</t>
+          <t>3.47亿</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>10.61%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8.29</t>
+          <t>17.10</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>7.47</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>15.64</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>11.19%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-27.13</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-12-01</t>
         </is>
       </c>
     </row>

--- a/Assets/sh_data.xlsx
+++ b/Assets/sh_data.xlsx
@@ -538,12 +538,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>600408</t>
+          <t>688228</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>安泰集团</t>
+          <t>开普云</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -553,72 +553,72 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>59.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.16%</t>
+          <t>13.25%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>44.74万</t>
+          <t>7.82万</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.22亿</t>
+          <t>4.44亿</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10.16%</t>
+          <t>12.61%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>53.69</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>54.48</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>52.90</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>4.44%</t>
+          <t>11.58%</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-4.88</t>
+          <t>-198.54</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>600661</t>
+          <t>688525</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>昂立教育</t>
+          <t>佰维存储</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -650,72 +650,72 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>73.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>10.75%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>10.79万</t>
+          <t>10.08万</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.08亿</t>
+          <t>7.17亿</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>10.78%</t>
+          <t>15.70%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>75.93</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>65.52</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>66.20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>66.30</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>17.99</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>3.76%</t>
+          <t>26.01%</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-25.65</t>
+          <t>-48.96</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>600593</t>
+          <t>600408</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大连圣亚</t>
+          <t>安泰集团</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -747,72 +747,72 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.64</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>10.16%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.51万</t>
+          <t>112.08万</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9290.68万</t>
+          <t>3.10亿</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2.99%</t>
+          <t>10.16%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>20.64</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>20.08</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>18.76</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>11.13%</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>-4.88</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>603189</t>
+          <t>600661</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>网达软件</t>
+          <t>昂立教育</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -844,72 +844,72 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>15.92</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>12.39万</t>
+          <t>14.10万</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.96亿</t>
+          <t>1.42亿</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>9.12%</t>
+          <t>10.78%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>15.92</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>14.60</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14.93</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>14.47</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>20.17</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>4.60%</t>
+          <t>4.92%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-62.50</t>
+          <t>-25.65</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>600250</t>
+          <t>603697</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南京商旅</t>
+          <t>有友食品</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -951,62 +951,62 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>5.46万</t>
+          <t>26.00万</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5812.25万</t>
+          <t>2.47亿</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>11.04%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.92%</t>
+          <t>6.08%</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>67.05</t>
+          <t>29.54</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1023,12 +1023,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>600128</t>
+          <t>600593</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>苏豪弘业</t>
+          <t>大连圣亚</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1038,72 +1038,72 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.01%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>15.39万</t>
+          <t>5.16万</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.53亿</t>
+          <t>1.06亿</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>9.79%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>20.08</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>18.76</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>87.62</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>603719</t>
+          <t>603189</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>良品铺子</t>
+          <t>网达软件</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1135,72 +1135,72 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.32</t>
+          <t>15.92</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.01%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7.65万</t>
+          <t>13.25万</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.62亿</t>
+          <t>2.10亿</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4.75%</t>
+          <t>9.12%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21.32</t>
+          <t>15.92</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>14.60</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>14.93</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>19.38</t>
+          <t>14.47</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.57</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>4.92%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>33.52</t>
+          <t>-62.50</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>603598</t>
+          <t>600250</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>引力传媒</t>
+          <t>南京商旅</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1232,72 +1232,72 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.01%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>53.42万</t>
+          <t>6.36万</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8.60亿</t>
+          <t>6776.93万</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9.94%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>14.99</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>19.94%</t>
+          <t>2.24%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>67.05</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>24.43</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1314,12 +1314,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>603535</t>
+          <t>600730</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉诚国际</t>
+          <t>中国高科</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1329,72 +1329,72 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>7.59万</t>
+          <t>48.27万</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.48亿</t>
+          <t>3.01亿</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>7.75%</t>
+          <t>10.19%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>18.61</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18.61</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>18.20</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>3.48%</t>
+          <t>8.23%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>20.78</t>
+          <t>535.93</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>603721</t>
+          <t>600686</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中广天择</t>
+          <t>金龙汽车</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1426,72 +1426,72 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30.26</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.82万</t>
+          <t>78.63万</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.76亿</t>
+          <t>6.69亿</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.91%</t>
+          <t>8.76%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>30.26</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>30.01</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>30.01</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>27.51</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>4.48%</t>
+          <t>10.97%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-1011.60</t>
+          <t>83.37</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>603536</t>
+          <t>605218</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>惠发食品</t>
+          <t>伟时电子</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1523,72 +1523,72 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>28.79</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>37.61万</t>
+          <t>25.59万</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5.58亿</t>
+          <t>6.90亿</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11.95%</t>
+          <t>13.68%</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>15.19</t>
+          <t>28.79</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14.58</t>
+          <t>25.47</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>13.81</t>
+          <t>26.17</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>15.37%</t>
+          <t>12.02%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-93.04</t>
+          <t>69.84</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1605,12 +1605,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>600228</t>
+          <t>600128</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>返利科技</t>
+          <t>苏豪弘业</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1620,72 +1620,72 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>9.99%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.25万</t>
+          <t>18.68万</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7996.34万</t>
+          <t>1.85亿</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7.49%</t>
+          <t>9.79%</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>3.32%</t>
+          <t>7.57%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-315.21</t>
+          <t>87.62</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1702,12 +1702,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>603023</t>
+          <t>603719</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>威帝股份</t>
+          <t>良品铺子</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1717,72 +1717,72 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>142.82万</t>
+          <t>9.54万</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>9.84亿</t>
+          <t>2.02亿</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7.92%</t>
+          <t>4.75%</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>20.40</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>20.40</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>19.38</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>25.41%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1592.71</t>
+          <t>33.52</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>603211</t>
+          <t>603598</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>晋拓股份</t>
+          <t>引力传媒</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1814,72 +1814,72 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>39.18万</t>
+          <t>56.07万</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>8.52亿</t>
+          <t>9.04亿</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>18.67%</t>
+          <t>9.94%</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>23.80</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>19.76</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>22.19</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>21.64</t>
+          <t>14.99</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>20.14</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>57.65%</t>
+          <t>20.93%</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>124.45</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>24.43</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1896,12 +1896,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>600571</t>
+          <t>601595</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>信雅达</t>
+          <t>上海电影</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1911,72 +1911,72 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>21.77</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>9.96%</t>
+          <t>10.01%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>7.33万</t>
+          <t>24.00万</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>8898.62万</t>
+          <t>5.04亿</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>9.90%</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>21.77</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>19.81</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>12.14</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>19.79</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1.64%</t>
+          <t>5.36%</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>58.77</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1993,12 +1993,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>688668</t>
+          <t>603721</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鼎通科技</t>
+          <t>中广天择</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2008,72 +2008,72 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>58.08</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.64%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5.04万</t>
+          <t>6.04万</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.92亿</t>
+          <t>1.82亿</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7.75%</t>
+          <t>0.91%</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>59.18</t>
+          <t>30.26</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>30.01</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>55.00</t>
+          <t>30.01</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>53.96</t>
+          <t>27.51</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>10.83%</t>
+          <t>4.65%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>81.18</t>
+          <t>-1011.60</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>603488</t>
+          <t>605151</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>展鹏科技</t>
+          <t>西上海</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2105,72 +2105,72 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.14%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>22.07万</t>
+          <t>7.13万</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.32亿</t>
+          <t>1.55亿</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11.08%</t>
+          <t>12.37%</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>22.67</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>20.12</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>20.61</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>7.56%</t>
+          <t>11.15%</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>40.94</t>
+          <t>25.20</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>601599</t>
+          <t>603860</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浙文影业</t>
+          <t>中公高科</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2202,72 +2202,72 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>35.33</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>60.69万</t>
+          <t>8.45万</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.63亿</t>
+          <t>2.83亿</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>13.95%</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>35.33</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>30.85</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>31.80</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>6.80%</t>
+          <t>12.67%</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>32.37</t>
+          <t>148.97</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2284,12 +2284,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>600249</t>
+          <t>603536</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>两面针</t>
+          <t>惠发食品</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2299,72 +2299,72 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.03%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>42.29万</t>
+          <t>55.03万</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.64亿</t>
+          <t>8.19亿</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>11.95%</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>14.58</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>13.81</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>11.99</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>22.49%</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>65.37</t>
+          <t>-93.04</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>605577</t>
+          <t>600228</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>龙版传媒</t>
+          <t>返利科技</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2396,72 +2396,72 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>16.58</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>6.01%</t>
+          <t>9.99%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21.09万</t>
+          <t>10.02万</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.47亿</t>
+          <t>8668.81万</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>10.61%</t>
+          <t>7.49%</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>17.10</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>11.19%</t>
+          <t>3.59%</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>-315.21</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
